--- a/plan/任务清单.xlsx
+++ b/plan/任务清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>任务清单</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>未完成</t>
+  </si>
+  <si>
+    <t>待定</t>
   </si>
   <si>
     <t>已经训练过语音模型通过率（取样100条）</t>
@@ -76,10 +79,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -128,6 +131,42 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Avenir Next Demi Bold"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,22 +188,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Avenir Next Demi Bold"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Avenir Next Demi Bold"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Avenir Next Demi Bold"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,9 +227,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Avenir Next Demi Bold"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,75 +267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Avenir Next Demi Bold"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,61 +295,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,121 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,6 +644,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,6 +692,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -691,15 +718,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,172 +736,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -899,7 +902,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,7 +926,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -932,6 +935,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -947,10 +953,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,7 +1297,7 @@
           <a:schemeClr val="accent6">
             <a:hueOff val="409046"/>
             <a:satOff val="3911"/>
-            <a:lumOff val="-23972"/>
+            <a:lumOff val="-23971"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="12700" cap="flat">
@@ -1586,7 +1592,7 @@
             <a:schemeClr val="accent6">
               <a:hueOff val="409046"/>
               <a:satOff val="3911"/>
-              <a:lumOff val="-23972"/>
+              <a:lumOff val="-23971"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -2151,7 +2157,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.175" defaultRowHeight="21.65" customHeight="1" outlineLevelCol="3"/>
@@ -2186,84 +2192,98 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:4">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="1" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16" t="s">
         <v>11</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:4">
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>15</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:4">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>17</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/plan/任务清单.xlsx
+++ b/plan/任务清单.xlsx
@@ -11,6 +11,38 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>maxiaolu</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="0"/>
+          </rPr>
+          <t>maxiaolu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+ </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79,12 +111,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -129,6 +161,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="华文宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Avenir Next Demi Bold"/>
@@ -145,6 +183,35 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Avenir Next Demi Bold"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,8 +225,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Avenir Next Demi Bold"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -180,6 +279,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Avenir Next Demi Bold"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -188,75 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -264,21 +317,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -301,6 +339,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -313,7 +375,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,157 +447,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,24 +686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -692,17 +712,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,16 +752,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,148 +779,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -947,7 +985,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1297,7 +1335,7 @@
           <a:schemeClr val="accent6">
             <a:hueOff val="409046"/>
             <a:satOff val="3911"/>
-            <a:lumOff val="-23971"/>
+            <a:lumOff val="-23970"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="12700" cap="flat">
@@ -1592,7 +1630,7 @@
             <a:schemeClr val="accent6">
               <a:hueOff val="409046"/>
               <a:satOff val="3911"/>
-              <a:lumOff val="-23971"/>
+              <a:lumOff val="-23970"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -2157,7 +2195,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.175" defaultRowHeight="21.65" customHeight="1" outlineLevelCol="3"/>
@@ -2295,5 +2333,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>